--- a/US/data/EIA/PETR/Table_9.4_Retail_Motor_Gasoline_and_On-Highway_Diesel_Fuel_Prices.xlsx
+++ b/US/data/EIA/PETR/Table_9.4_Retail_Motor_Gasoline_and_On-Highway_Diesel_Fuel_Prices.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>February 2022 Monthly Energy Review</t>
+    <t>May 2022 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: February 24, 2022</t>
+    <t>Release Date: May 25, 2022</t>
   </si>
   <si>
-    <t>Next Update: March 29, 2022</t>
+    <t>Next Update: June 27, 2022</t>
   </si>
   <si>
     <t>Table 9.4 Retail Motor Gasoline and On-Highway Diesel Fuel Prices</t>
@@ -476,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -17661,6 +17661,93 @@
       </c>
       <c r="I601">
         <v>3.724</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" s="6">
+        <v>44593</v>
+      </c>
+      <c r="B602" t="s">
+        <v>16</v>
+      </c>
+      <c r="C602">
+        <v>3.592</v>
+      </c>
+      <c r="D602">
+        <v>4.244</v>
+      </c>
+      <c r="E602">
+        <v>3.675</v>
+      </c>
+      <c r="F602">
+        <v>3.4</v>
+      </c>
+      <c r="G602">
+        <v>3.773</v>
+      </c>
+      <c r="H602">
+        <v>3.517</v>
+      </c>
+      <c r="I602">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603" s="6">
+        <v>44621</v>
+      </c>
+      <c r="B603" t="s">
+        <v>16</v>
+      </c>
+      <c r="C603">
+        <v>4.312</v>
+      </c>
+      <c r="D603">
+        <v>5.015</v>
+      </c>
+      <c r="E603">
+        <v>4.401</v>
+      </c>
+      <c r="F603">
+        <v>4.078</v>
+      </c>
+      <c r="G603">
+        <v>4.535</v>
+      </c>
+      <c r="H603">
+        <v>4.222</v>
+      </c>
+      <c r="I603">
+        <v>5.105</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B604" t="s">
+        <v>16</v>
+      </c>
+      <c r="C604">
+        <v>4.271</v>
+      </c>
+      <c r="D604">
+        <v>5.037</v>
+      </c>
+      <c r="E604">
+        <v>4.369</v>
+      </c>
+      <c r="F604">
+        <v>3.96</v>
+      </c>
+      <c r="G604">
+        <v>4.435</v>
+      </c>
+      <c r="H604">
+        <v>4.109</v>
+      </c>
+      <c r="I604">
+        <v>5.12</v>
       </c>
     </row>
   </sheetData>
@@ -17687,7 +17774,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -19881,6 +19968,35 @@
         <v>2.551</v>
       </c>
     </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>3.051</v>
+      </c>
+      <c r="D85">
+        <v>3.692</v>
+      </c>
+      <c r="E85">
+        <v>3.133</v>
+      </c>
+      <c r="F85">
+        <v>2.908</v>
+      </c>
+      <c r="G85">
+        <v>3.224</v>
+      </c>
+      <c r="H85">
+        <v>3.008</v>
+      </c>
+      <c r="I85">
+        <v>3.287</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <hyperlinks>
